--- a/final-plot/all_PCA_dips_montecarlo_BP_singlerun_three_std_final.xlsx
+++ b/final-plot/all_PCA_dips_montecarlo_BP_singlerun_three_std_final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ntste\Documents\Mars\VRR\Dips\Monte Carlo Dips\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Daven/Projects/Curiosity-Layer-Dips/final-plot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E25026-B9A8-4DED-9121-F97D53745047}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F23D08F1-1339-6840-8F60-24AE3C473922}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10320" yWindow="8838" windowWidth="15102" windowHeight="9126" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-34060" yWindow="-7440" windowWidth="28980" windowHeight="22440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -98,9 +96,6 @@
     <t>Second PC d</t>
   </si>
   <si>
-    <t>Scond PC e</t>
-  </si>
-  <si>
     <t>First PC Ratio</t>
   </si>
   <si>
@@ -120,6 +115,9 @@
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>Second PC e</t>
   </si>
 </sst>
 </file>
@@ -461,13 +459,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z487"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AA7" sqref="AA7"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.83203125" customWidth="1"/>
+    <col min="8" max="8" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="18.5" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1"/>
+    <col min="11" max="11" width="19.1640625" customWidth="1"/>
+    <col min="12" max="12" width="17.83203125" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" customWidth="1"/>
+    <col min="14" max="17" width="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.83203125" customWidth="1"/>
+    <col min="22" max="22" width="22" customWidth="1"/>
+    <col min="23" max="24" width="26.5" customWidth="1"/>
+    <col min="25" max="25" width="30.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -535,19 +551,19 @@
         <v>21</v>
       </c>
       <c r="W1" t="s">
+        <v>29</v>
+      </c>
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1802</v>
       </c>
@@ -624,10 +640,10 @@
         <v>3.2942612942612</v>
       </c>
       <c r="Z2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1802</v>
       </c>
@@ -704,10 +720,10 @@
         <v>5.669244406407203</v>
       </c>
       <c r="Z3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1802</v>
       </c>
@@ -784,10 +800,10 @@
         <v>3.3412430760629852</v>
       </c>
       <c r="Z4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1802</v>
       </c>
@@ -864,10 +880,10 @@
         <v>4.1025736812095017</v>
       </c>
       <c r="Z5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1802</v>
       </c>
@@ -944,10 +960,10 @@
         <v>3.8727464014157058</v>
       </c>
       <c r="Z6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1802</v>
       </c>
@@ -1024,10 +1040,10 @@
         <v>3.4031223526565721</v>
       </c>
       <c r="Z7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1802</v>
       </c>
@@ -1104,10 +1120,10 @@
         <v>2.5268247326821509</v>
       </c>
       <c r="Z8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1802</v>
       </c>
@@ -1184,10 +1200,10 @@
         <v>5.1777990728033867</v>
       </c>
       <c r="Z9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1802</v>
       </c>
@@ -1264,10 +1280,10 @@
         <v>1.3943954906709</v>
       </c>
       <c r="Z10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1802</v>
       </c>
@@ -1344,10 +1360,10 @@
         <v>1.2266228539161259</v>
       </c>
       <c r="Z11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1802</v>
       </c>
@@ -1424,10 +1440,10 @@
         <v>11.299081035923599</v>
       </c>
       <c r="Z12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1802</v>
       </c>
@@ -1504,10 +1520,10 @@
         <v>4.9494299274452036</v>
       </c>
       <c r="Z13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1802</v>
       </c>
@@ -1584,10 +1600,10 @@
         <v>4.7547309833022897</v>
       </c>
       <c r="Z14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1802</v>
       </c>
@@ -1664,10 +1680,10 @@
         <v>3.354001545622614</v>
       </c>
       <c r="Z15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1802</v>
       </c>
@@ -1744,10 +1760,10 @@
         <v>1.298490997739234</v>
       </c>
       <c r="Z16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1802</v>
       </c>
@@ -1824,10 +1840,10 @@
         <v>4.1111690178810569</v>
       </c>
       <c r="Z17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1809</v>
       </c>
@@ -1904,10 +1920,10 @@
         <v>4.1858338751628894</v>
       </c>
       <c r="Z18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1809</v>
       </c>
@@ -1984,10 +2000,10 @@
         <v>4.7335427574168518</v>
       </c>
       <c r="Z19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1809</v>
       </c>
@@ -2064,10 +2080,10 @@
         <v>0.45647725484084672</v>
       </c>
       <c r="Z20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1809</v>
       </c>
@@ -2144,10 +2160,10 @@
         <v>2.7224910146534032</v>
       </c>
       <c r="Z21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1809</v>
       </c>
@@ -2224,10 +2240,10 @@
         <v>1.528653295128177</v>
       </c>
       <c r="Z22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1809</v>
       </c>
@@ -2304,10 +2320,10 @@
         <v>1.6584339653570299</v>
       </c>
       <c r="Z23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1809</v>
       </c>
@@ -2384,10 +2400,10 @@
         <v>1.4150237933370671</v>
       </c>
       <c r="Z24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1809</v>
       </c>
@@ -2464,10 +2480,10 @@
         <v>1.2319999999999709</v>
       </c>
       <c r="Z25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1809</v>
       </c>
@@ -2544,10 +2560,10 @@
         <v>1.128634727221709</v>
       </c>
       <c r="Z26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1809</v>
       </c>
@@ -2624,10 +2640,10 @@
         <v>1.6629161882890531</v>
       </c>
       <c r="Z27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1809</v>
       </c>
@@ -2704,10 +2720,10 @@
         <v>0.96825075834223295</v>
       </c>
       <c r="Z28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1809</v>
       </c>
@@ -2784,10 +2800,10 @@
         <v>1.340641711229881</v>
       </c>
       <c r="Z29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1809</v>
       </c>
@@ -2864,10 +2880,10 @@
         <v>1.9190287317401571</v>
       </c>
       <c r="Z30" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1809</v>
       </c>
@@ -2944,10 +2960,10 @@
         <v>1.6348334075942379</v>
       </c>
       <c r="Z31" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1809</v>
       </c>
@@ -3024,10 +3040,10 @@
         <v>3.1189088813466972</v>
       </c>
       <c r="Z32" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1809</v>
       </c>
@@ -3104,10 +3120,10 @@
         <v>0.81509433962244526</v>
       </c>
       <c r="Z33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1809</v>
       </c>
@@ -3184,10 +3200,10 @@
         <v>1.501004539027305</v>
       </c>
       <c r="Z34" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1809</v>
       </c>
@@ -3264,10 +3280,10 @@
         <v>1.3828102642376929</v>
       </c>
       <c r="Z35" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1809</v>
       </c>
@@ -3344,10 +3360,10 @@
         <v>1.5047324705418861</v>
       </c>
       <c r="Z36" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1812</v>
       </c>
@@ -3424,10 +3440,10 @@
         <v>13.94999999999413</v>
       </c>
       <c r="Z37" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1812</v>
       </c>
@@ -3504,10 +3520,10 @@
         <v>12.95000000000357</v>
       </c>
       <c r="Z38" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1812</v>
       </c>
@@ -3584,10 +3600,10 @@
         <v>8.0038546255531937</v>
       </c>
       <c r="Z39" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1812</v>
       </c>
@@ -3664,10 +3680,10 @@
         <v>13.271554955764829</v>
       </c>
       <c r="Z40" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1812</v>
       </c>
@@ -3744,10 +3760,10 @@
         <v>8.7187499999963336</v>
       </c>
       <c r="Z41" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1812</v>
       </c>
@@ -3824,10 +3840,10 @@
         <v>22.35260391782462</v>
       </c>
       <c r="Z42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1812</v>
       </c>
@@ -3904,10 +3920,10 @@
         <v>23.909604519773691</v>
       </c>
       <c r="Z43" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1812</v>
       </c>
@@ -3984,10 +4000,10 @@
         <v>11.627118644065989</v>
       </c>
       <c r="Z44" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1812</v>
       </c>
@@ -4064,10 +4080,10 @@
         <v>13.139266584261181</v>
       </c>
       <c r="Z45" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1812</v>
       </c>
@@ -4144,10 +4160,10 @@
         <v>10.97974734309053</v>
       </c>
       <c r="Z46" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1812</v>
       </c>
@@ -4224,10 +4240,10 @@
         <v>4.5769230769219753</v>
       </c>
       <c r="Z47" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1812</v>
       </c>
@@ -4304,10 +4320,10 @@
         <v>7.6923076923061622</v>
       </c>
       <c r="Z48" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1812</v>
       </c>
@@ -4384,10 +4400,10 @@
         <v>17.99281628309344</v>
       </c>
       <c r="Z49" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1812</v>
       </c>
@@ -4464,10 +4480,10 @@
         <v>6.1599999999998536</v>
       </c>
       <c r="Z50" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1812</v>
       </c>
@@ -4544,10 +4560,10 @@
         <v>6.0000000000002274</v>
       </c>
       <c r="Z51" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1812</v>
       </c>
@@ -4624,10 +4640,10 @@
         <v>4.8785638859537332</v>
       </c>
       <c r="Z52" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1812</v>
       </c>
@@ -4704,10 +4720,10 @@
         <v>4.1538461538419389</v>
       </c>
       <c r="Z53" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1812</v>
       </c>
@@ -4784,10 +4800,10 @@
         <v>4.925925925926288</v>
       </c>
       <c r="Z54" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1812</v>
       </c>
@@ -4864,10 +4880,10 @@
         <v>5.1481481481506242</v>
       </c>
       <c r="Z55" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1812</v>
       </c>
@@ -4944,10 +4960,10 @@
         <v>9.5769230769239861</v>
       </c>
       <c r="Z56" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1812</v>
       </c>
@@ -5024,10 +5040,10 @@
         <v>5.3461538461509521</v>
       </c>
       <c r="Z57" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>1828</v>
       </c>
@@ -5104,10 +5120,10 @@
         <v>2.7876950217763068</v>
       </c>
       <c r="Z58" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1828</v>
       </c>
@@ -5184,10 +5200,10 @@
         <v>2.398655139289092</v>
       </c>
       <c r="Z59" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>1828</v>
       </c>
@@ -5264,10 +5280,10 @@
         <v>3.71590080233464</v>
       </c>
       <c r="Z60" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1828</v>
       </c>
@@ -5344,10 +5360,10 @@
         <v>1.9305210918114111</v>
       </c>
       <c r="Z61" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1829</v>
       </c>
@@ -5424,10 +5440,10 @@
         <v>1.8117872934602191</v>
       </c>
       <c r="Z62" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1829</v>
       </c>
@@ -5504,10 +5520,10 @@
         <v>3.540142482743176</v>
       </c>
       <c r="Z63" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1829</v>
       </c>
@@ -5584,10 +5600,10 @@
         <v>1.272546051902937</v>
       </c>
       <c r="Z64" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>1829</v>
       </c>
@@ -5664,10 +5680,10 @@
         <v>1.3471579889603671</v>
       </c>
       <c r="Z65" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>1829</v>
       </c>
@@ -5744,10 +5760,10 @@
         <v>1.2911012712464069</v>
       </c>
       <c r="Z66" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>1829</v>
       </c>
@@ -5824,10 +5840,10 @@
         <v>2.6048181725578581</v>
       </c>
       <c r="Z67" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1829</v>
       </c>
@@ -5904,10 +5920,10 @@
         <v>0.91000000000036607</v>
       </c>
       <c r="Z68" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>1829</v>
       </c>
@@ -5984,10 +6000,10 @@
         <v>2.3791417707769962</v>
       </c>
       <c r="Z69" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1868</v>
       </c>
@@ -6064,10 +6080,10 @@
         <v>4.5331068547960109</v>
       </c>
       <c r="Z70" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>1868</v>
       </c>
@@ -6144,10 +6160,10 @@
         <v>1.0593532919413551</v>
       </c>
       <c r="Z71" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>1868</v>
       </c>
@@ -6224,10 +6240,10 @@
         <v>0.74329624357234791</v>
       </c>
       <c r="Z72" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1868</v>
       </c>
@@ -6304,10 +6320,10 @@
         <v>0.70175026035509136</v>
       </c>
       <c r="Z73" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1868</v>
       </c>
@@ -6384,10 +6400,10 @@
         <v>0.70309686712268027</v>
       </c>
       <c r="Z74" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1868</v>
       </c>
@@ -6464,10 +6480,10 @@
         <v>0.63311206559932487</v>
       </c>
       <c r="Z75" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1868</v>
       </c>
@@ -6544,10 +6560,10 @@
         <v>1.468659287975016</v>
       </c>
       <c r="Z76" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>1868</v>
       </c>
@@ -6624,10 +6640,10 @@
         <v>1.8015915119364381</v>
       </c>
       <c r="Z77" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1868</v>
       </c>
@@ -6704,10 +6720,10 @@
         <v>0.5985215605749632</v>
       </c>
       <c r="Z78" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>1868</v>
       </c>
@@ -6784,10 +6800,10 @@
         <v>1.1469454381265449</v>
       </c>
       <c r="Z79" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>1868</v>
       </c>
@@ -6864,10 +6880,10 @@
         <v>2.033952284282929</v>
       </c>
       <c r="Z80" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>1868</v>
       </c>
@@ -6944,10 +6960,10 @@
         <v>11.66757567493844</v>
       </c>
       <c r="Z81" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>1868</v>
       </c>
@@ -7024,10 +7040,10 @@
         <v>1.6087653661143879</v>
       </c>
       <c r="Z82" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>1868</v>
       </c>
@@ -7104,10 +7120,10 @@
         <v>3.8166286478403819</v>
       </c>
       <c r="Z83" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>1868</v>
       </c>
@@ -7184,10 +7200,10 @@
         <v>1.3184923823704919</v>
       </c>
       <c r="Z84" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>1868</v>
       </c>
@@ -7264,10 +7280,10 @@
         <v>1.5276630274414891</v>
       </c>
       <c r="Z85" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>1868</v>
       </c>
@@ -7344,10 +7360,10 @@
         <v>18.701248799231301</v>
       </c>
       <c r="Z86" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>1868</v>
       </c>
@@ -7424,10 +7440,10 @@
         <v>2.9028178389178141</v>
       </c>
       <c r="Z87" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>1868</v>
       </c>
@@ -7504,10 +7520,10 @@
         <v>0.81111111110961553</v>
       </c>
       <c r="Z88" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>1868</v>
       </c>
@@ -7584,10 +7600,10 @@
         <v>0.24999999999985409</v>
       </c>
       <c r="Z89" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>1868</v>
       </c>
@@ -7664,10 +7680,10 @@
         <v>4.3614651652034384</v>
       </c>
       <c r="Z90" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>1868</v>
       </c>
@@ -7744,10 +7760,10 @@
         <v>0.85546954573234302</v>
       </c>
       <c r="Z91" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>1868</v>
       </c>
@@ -7824,10 +7840,10 @@
         <v>0.35270154373925738</v>
       </c>
       <c r="Z92" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>1868</v>
       </c>
@@ -7904,10 +7920,10 @@
         <v>4.9794401783503952</v>
       </c>
       <c r="Z93" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>1868</v>
       </c>
@@ -7984,10 +8000,10 @@
         <v>2.5771449841785898</v>
       </c>
       <c r="Z94" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>1868</v>
       </c>
@@ -8064,10 +8080,10 @@
         <v>4.0917553191498408</v>
       </c>
       <c r="Z95" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>1868</v>
       </c>
@@ -8144,10 +8160,10 @@
         <v>4.2846252846244406</v>
       </c>
       <c r="Z96" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>1868</v>
       </c>
@@ -8224,10 +8240,10 @@
         <v>1.058542201753492</v>
       </c>
       <c r="Z97" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>1868</v>
       </c>
@@ -8304,10 +8320,10 @@
         <v>3.4029443011091529</v>
       </c>
       <c r="Z98" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>1868</v>
       </c>
@@ -8384,10 +8400,10 @@
         <v>3.9228447323841791</v>
       </c>
       <c r="Z99" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="100" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>1868</v>
       </c>
@@ -8464,10 +8480,10 @@
         <v>3.0405405405416159</v>
       </c>
       <c r="Z100" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="101" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>1868</v>
       </c>
@@ -8544,10 +8560,10 @@
         <v>1.125702944094092</v>
       </c>
       <c r="Z101" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="102" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>1868</v>
       </c>
@@ -8624,10 +8640,10 @@
         <v>0.65957101072490931</v>
       </c>
       <c r="Z102" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="103" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>1868</v>
       </c>
@@ -8704,10 +8720,10 @@
         <v>0.68801121757412387</v>
       </c>
       <c r="Z103" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="104" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>1868</v>
       </c>
@@ -8784,10 +8800,10 @@
         <v>0.91111111110977727</v>
       </c>
       <c r="Z104" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="105" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>1868</v>
       </c>
@@ -8864,10 +8880,10 @@
         <v>1.164835164836354</v>
       </c>
       <c r="Z105" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="106" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>1868</v>
       </c>
@@ -8944,10 +8960,10 @@
         <v>0.5828750981907137</v>
       </c>
       <c r="Z106" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="107" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>1868</v>
       </c>
@@ -9024,10 +9040,10 @@
         <v>0.8897390353874296</v>
       </c>
       <c r="Z107" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="108" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>1868</v>
       </c>
@@ -9104,10 +9120,10 @@
         <v>0.23563218390810939</v>
       </c>
       <c r="Z108" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="109" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>1868</v>
       </c>
@@ -9184,10 +9200,10 @@
         <v>1.1910112359530789</v>
       </c>
       <c r="Z109" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="110" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>1868</v>
       </c>
@@ -9264,10 +9280,10 @@
         <v>1.633333333330711</v>
       </c>
       <c r="Z110" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="111" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>1868</v>
       </c>
@@ -9344,10 +9360,10 @@
         <v>1.786064149155776</v>
       </c>
       <c r="Z111" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="112" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>1870</v>
       </c>
@@ -9424,10 +9440,10 @@
         <v>2.5625924258985799</v>
       </c>
       <c r="Z112" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="113" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>1870</v>
       </c>
@@ -9504,10 +9520,10 @@
         <v>6.1721367099539384</v>
       </c>
       <c r="Z113" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="114" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>1870</v>
       </c>
@@ -9584,10 +9600,10 @@
         <v>31.723774954630962</v>
       </c>
       <c r="Z114" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="115" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>1870</v>
       </c>
@@ -9664,10 +9680,10 @@
         <v>25.753753753762009</v>
       </c>
       <c r="Z115" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="116" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>1870</v>
       </c>
@@ -9744,10 +9760,10 @@
         <v>26.55211912943642</v>
       </c>
       <c r="Z116" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="117" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>1870</v>
       </c>
@@ -9824,10 +9840,10 @@
         <v>1.2717391304344769</v>
       </c>
       <c r="Z117" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="118" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>1870</v>
       </c>
@@ -9904,10 +9920,10 @@
         <v>15.9431279620807</v>
       </c>
       <c r="Z118" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="119" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>1870</v>
       </c>
@@ -9984,10 +10000,10 @@
         <v>76.918505942264972</v>
       </c>
       <c r="Z119" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="120" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>1870</v>
       </c>
@@ -10064,10 +10080,10 @@
         <v>35.725838264295092</v>
       </c>
       <c r="Z120" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="121" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>1870</v>
       </c>
@@ -10144,10 +10160,10 @@
         <v>23.80246913580665</v>
       </c>
       <c r="Z121" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="122" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>1870</v>
       </c>
@@ -10224,10 +10240,10 @@
         <v>1.560861164781393</v>
       </c>
       <c r="Z122" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="123" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>1870</v>
       </c>
@@ -10304,10 +10320,10 @@
         <v>1.516185069062121</v>
       </c>
       <c r="Z123" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="124" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>1870</v>
       </c>
@@ -10384,10 +10400,10 @@
         <v>1.0062380521179231</v>
       </c>
       <c r="Z124" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="125" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>1870</v>
       </c>
@@ -10464,10 +10480,10 @@
         <v>1.6288825725145479</v>
       </c>
       <c r="Z125" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="126" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>1870</v>
       </c>
@@ -10544,10 +10560,10 @@
         <v>154.63456090652011</v>
       </c>
       <c r="Z126" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="127" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>1925</v>
       </c>
@@ -10624,10 +10640,10 @@
         <v>8.8666666666673191</v>
       </c>
       <c r="Z127" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="128" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>1925</v>
       </c>
@@ -10704,10 +10720,10 @@
         <v>31.424581005581839</v>
       </c>
       <c r="Z128" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="129" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>1925</v>
       </c>
@@ -10784,10 +10800,10 @@
         <v>7.2200000000009368</v>
       </c>
       <c r="Z129" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="130" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>1925</v>
       </c>
@@ -10864,10 +10880,10 @@
         <v>9.9017599159439307</v>
       </c>
       <c r="Z130" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="131" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>1925</v>
       </c>
@@ -10944,10 +10960,10 @@
         <v>6.0652173913048868</v>
       </c>
       <c r="Z131" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="132" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>1925</v>
       </c>
@@ -11024,10 +11040,10 @@
         <v>23.399999999999942</v>
       </c>
       <c r="Z132" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="133" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>1925</v>
       </c>
@@ -11104,10 +11120,10 @@
         <v>9.7518530454397485</v>
       </c>
       <c r="Z133" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="134" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>1925</v>
       </c>
@@ -11184,10 +11200,10 @@
         <v>39.702722590137313</v>
       </c>
       <c r="Z134" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="135" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="135" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>1925</v>
       </c>
@@ -11264,10 +11280,10 @@
         <v>19.025850340136181</v>
       </c>
       <c r="Z135" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="136" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="136" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>1925</v>
       </c>
@@ -11344,10 +11360,10 @@
         <v>8.9841035120144159</v>
       </c>
       <c r="Z136" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="137" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="137" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>1925</v>
       </c>
@@ -11424,10 +11440,10 @@
         <v>41.763621123215778</v>
       </c>
       <c r="Z137" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="138" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="138" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>1925</v>
       </c>
@@ -11504,10 +11520,10 @@
         <v>16.375000000001801</v>
       </c>
       <c r="Z138" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="139" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="139" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>1925</v>
       </c>
@@ -11584,10 +11600,10 @@
         <v>16.562500000008029</v>
       </c>
       <c r="Z139" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="140" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="140" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>1925</v>
       </c>
@@ -11664,10 +11680,10 @@
         <v>23.513084386945621</v>
       </c>
       <c r="Z140" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="141" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="141" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>1925</v>
       </c>
@@ -11744,10 +11760,10 @@
         <v>3.8038647342981</v>
       </c>
       <c r="Z141" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="142" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="142" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>1925</v>
       </c>
@@ -11824,10 +11840,10 @@
         <v>19.03184713375952</v>
       </c>
       <c r="Z142" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="143" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="143" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>1925</v>
       </c>
@@ -11904,10 +11920,10 @@
         <v>32.766067273113563</v>
       </c>
       <c r="Z143" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="144" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>1925</v>
       </c>
@@ -11984,10 +12000,10 @@
         <v>8.0566462825862182</v>
       </c>
       <c r="Z144" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="145" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="145" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>1925</v>
       </c>
@@ -12064,10 +12080,10 @@
         <v>5.6666666666653018</v>
       </c>
       <c r="Z145" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="146" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="146" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>1925</v>
       </c>
@@ -12144,10 +12160,10 @@
         <v>6.7407407407381887</v>
       </c>
       <c r="Z146" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="147" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="147" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>1925</v>
       </c>
@@ -12224,10 +12240,10 @@
         <v>9.3373083475296568</v>
       </c>
       <c r="Z147" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="148" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="148" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>1925</v>
       </c>
@@ -12304,10 +12320,10 @@
         <v>11.03571428571521</v>
       </c>
       <c r="Z148" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="149" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="149" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>1925</v>
       </c>
@@ -12384,10 +12400,10 @@
         <v>11.48387096774268</v>
       </c>
       <c r="Z149" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="150" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="150" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>1925</v>
       </c>
@@ -12464,10 +12480,10 @@
         <v>11.16129032257985</v>
       </c>
       <c r="Z150" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="151" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="151" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>1925</v>
       </c>
@@ -12544,10 +12560,10 @@
         <v>18.66129316420361</v>
       </c>
       <c r="Z151" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="152" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="152" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>1925</v>
       </c>
@@ -12624,10 +12640,10 @@
         <v>19.926991926990031</v>
       </c>
       <c r="Z152" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="153" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="153" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>1925</v>
       </c>
@@ -12704,10 +12720,10 @@
         <v>2.584942084942301</v>
       </c>
       <c r="Z153" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="154" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="154" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>1925</v>
       </c>
@@ -12784,10 +12800,10 @@
         <v>14.40349305866466</v>
       </c>
       <c r="Z154" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="155" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="155" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>1931</v>
       </c>
@@ -12864,10 +12880,10 @@
         <v>2.9024968930061381</v>
       </c>
       <c r="Z155" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="156" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="156" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>1931</v>
       </c>
@@ -12944,10 +12960,10 @@
         <v>3.705679012345183</v>
       </c>
       <c r="Z156" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="157" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="157" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>1931</v>
       </c>
@@ -13024,10 +13040,10 @@
         <v>0.63445583211287437</v>
       </c>
       <c r="Z157" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="158" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="158" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>1931</v>
       </c>
@@ -13104,10 +13120,10 @@
         <v>1.8839127872725621</v>
       </c>
       <c r="Z158" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="159" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="159" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>1931</v>
       </c>
@@ -13184,10 +13200,10 @@
         <v>0.38622843545446622</v>
       </c>
       <c r="Z159" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="160" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="160" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>1931</v>
       </c>
@@ -13264,10 +13280,10 @@
         <v>1.3011658031080311</v>
       </c>
       <c r="Z160" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="161" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="161" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>1931</v>
       </c>
@@ -13344,10 +13360,10 @@
         <v>1.523775671406703</v>
       </c>
       <c r="Z161" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="162" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="162" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>1931</v>
       </c>
@@ -13424,10 +13440,10 @@
         <v>2.3243243243246678</v>
       </c>
       <c r="Z162" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="163" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="163" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>1931</v>
       </c>
@@ -13504,10 +13520,10 @@
         <v>1.127895079527415</v>
       </c>
       <c r="Z163" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="164" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="164" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>1931</v>
       </c>
@@ -13584,10 +13600,10 @@
         <v>0.40653357531768858</v>
       </c>
       <c r="Z164" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="165" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="165" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>1931</v>
       </c>
@@ -13664,10 +13680,10 @@
         <v>0.55363519497189173</v>
       </c>
       <c r="Z165" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="166" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="166" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>1931</v>
       </c>
@@ -13744,10 +13760,10 @@
         <v>0.91870598066044884</v>
       </c>
       <c r="Z166" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="167" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="167" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>1931</v>
       </c>
@@ -13824,10 +13840,10 @@
         <v>0.70629196717195375</v>
       </c>
       <c r="Z167" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="168" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="168" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>1931</v>
       </c>
@@ -13904,10 +13920,10 @@
         <v>0.75306700220191614</v>
       </c>
       <c r="Z168" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="169" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="169" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>1931</v>
       </c>
@@ -13984,10 +14000,10 @@
         <v>1.3477460901566849</v>
       </c>
       <c r="Z169" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="170" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="170" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>1931</v>
       </c>
@@ -14064,10 +14080,10 @@
         <v>0.97650852141838895</v>
       </c>
       <c r="Z170" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="171" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="171" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>1931</v>
       </c>
@@ -14144,10 +14160,10 @@
         <v>1.26835916205928</v>
       </c>
       <c r="Z171" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="172" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="172" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>1931</v>
       </c>
@@ -14224,10 +14240,10 @@
         <v>0.68272510231841732</v>
       </c>
       <c r="Z172" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="173" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="173" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>1931</v>
       </c>
@@ -14304,10 +14320,10 @@
         <v>0.60602457392022802</v>
       </c>
       <c r="Z173" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="174" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="174" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>1931</v>
       </c>
@@ -14384,10 +14400,10 @@
         <v>0.40611353711897419</v>
       </c>
       <c r="Z174" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="175" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="175" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>1931</v>
       </c>
@@ -14464,10 +14480,10 @@
         <v>0.3496809161644277</v>
       </c>
       <c r="Z175" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="176" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="176" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>1931</v>
       </c>
@@ -14544,10 +14560,10 @@
         <v>3.6245720684686789</v>
       </c>
       <c r="Z176" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="177" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="177" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>1931</v>
       </c>
@@ -14624,10 +14640,10 @@
         <v>4.1535398892379831</v>
       </c>
       <c r="Z177" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="178" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="178" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>1931</v>
       </c>
@@ -14704,10 +14720,10 @@
         <v>1.050973485961167</v>
       </c>
       <c r="Z178" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="179" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="179" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>1931</v>
       </c>
@@ -14784,10 +14800,10 @@
         <v>0.63814051769634139</v>
       </c>
       <c r="Z179" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="180" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="180" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>1931</v>
       </c>
@@ -14864,10 +14880,10 @@
         <v>0.92275132275187899</v>
       </c>
       <c r="Z180" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="181" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="181" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>1931</v>
       </c>
@@ -14944,10 +14960,10 @@
         <v>0.71776504298056032</v>
       </c>
       <c r="Z181" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="182" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="182" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>1931</v>
       </c>
@@ -15024,10 +15040,10 @@
         <v>0.46556284902470629</v>
       </c>
       <c r="Z182" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="183" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="183" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>1931</v>
       </c>
@@ -15104,10 +15120,10 @@
         <v>1.2059800664449689</v>
       </c>
       <c r="Z183" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="184" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="184" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>1931</v>
       </c>
@@ -15184,10 +15200,10 @@
         <v>1.0285103349963429</v>
       </c>
       <c r="Z184" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="185" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="185" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>1931</v>
       </c>
@@ -15264,10 +15280,10 @@
         <v>0.80218127115522508</v>
       </c>
       <c r="Z185" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="186" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="186" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>1931</v>
       </c>
@@ -15344,10 +15360,10 @@
         <v>0.90497896213297946</v>
       </c>
       <c r="Z186" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="187" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="187" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>1931</v>
       </c>
@@ -15424,10 +15440,10 @@
         <v>1.6109436805429529</v>
       </c>
       <c r="Z187" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="188" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="188" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>1931</v>
       </c>
@@ -15504,10 +15520,10 @@
         <v>0.47587622818576408</v>
       </c>
       <c r="Z188" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="189" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="189" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>1931</v>
       </c>
@@ -15584,10 +15600,10 @@
         <v>0.70718767826558626</v>
       </c>
       <c r="Z189" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="190" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="190" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>1931</v>
       </c>
@@ -15664,10 +15680,10 @@
         <v>0.93689942344565658</v>
       </c>
       <c r="Z190" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="191" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="191" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>1931</v>
       </c>
@@ -15744,10 +15760,10 @@
         <v>0.39187076602394622</v>
       </c>
       <c r="Z191" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="192" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="192" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>1944</v>
       </c>
@@ -15824,10 +15840,10 @@
         <v>0.90708772238472291</v>
       </c>
       <c r="Z192" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="193" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="193" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>1944</v>
       </c>
@@ -15904,10 +15920,10 @@
         <v>0.8839674637744549</v>
       </c>
       <c r="Z193" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="194" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="194" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>1944</v>
       </c>
@@ -15984,10 +16000,10 @@
         <v>1.73271383860874</v>
       </c>
       <c r="Z194" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="195" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="195" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>1944</v>
       </c>
@@ -16064,10 +16080,10 @@
         <v>3.0844796032823418</v>
       </c>
       <c r="Z195" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="196" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="196" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>1944</v>
       </c>
@@ -16144,10 +16160,10 @@
         <v>0.57655143905329231</v>
       </c>
       <c r="Z196" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="197" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="197" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>1944</v>
       </c>
@@ -16224,10 +16240,10 @@
         <v>0.77291201347437777</v>
       </c>
       <c r="Z197" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="198" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="198" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>1944</v>
       </c>
@@ -16304,10 +16320,10 @@
         <v>0.75830496537153402</v>
       </c>
       <c r="Z198" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="199" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="199" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>1944</v>
       </c>
@@ -16384,10 +16400,10 @@
         <v>1.5657972017704369</v>
       </c>
       <c r="Z199" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="200" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="200" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>1944</v>
       </c>
@@ -16464,10 +16480,10 @@
         <v>0.35437674773323591</v>
       </c>
       <c r="Z200" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="201" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="201" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>1944</v>
       </c>
@@ -16544,10 +16560,10 @@
         <v>1.1223263409916651</v>
       </c>
       <c r="Z201" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="202" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="202" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>1944</v>
       </c>
@@ -16624,10 +16640,10 @@
         <v>0.47873838355393089</v>
       </c>
       <c r="Z202" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="203" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="203" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>1944</v>
       </c>
@@ -16704,10 +16720,10 @@
         <v>4.3873037312172842</v>
       </c>
       <c r="Z203" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="204" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="204" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>1944</v>
       </c>
@@ -16784,10 +16800,10 @@
         <v>4.6977031106444107</v>
       </c>
       <c r="Z204" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="205" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="205" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>1944</v>
       </c>
@@ -16864,10 +16880,10 @@
         <v>7.6335953236699652</v>
       </c>
       <c r="Z205" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="206" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="206" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>1944</v>
       </c>
@@ -16944,10 +16960,10 @@
         <v>0.92490798527759854</v>
       </c>
       <c r="Z206" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="207" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="207" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>1944</v>
       </c>
@@ -17024,10 +17040,10 @@
         <v>3.4128910365876779</v>
       </c>
       <c r="Z207" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="208" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="208" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>1946</v>
       </c>
@@ -17104,10 +17120,10 @@
         <v>1.003381605100784</v>
       </c>
       <c r="Z208" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="209" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="209" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>1946</v>
       </c>
@@ -17184,10 +17200,10 @@
         <v>0.8172362555717444</v>
       </c>
       <c r="Z209" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="210" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="210" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>1946</v>
       </c>
@@ -17264,10 +17280,10 @@
         <v>0.45287343150196241</v>
       </c>
       <c r="Z210" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="211" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="211" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>1946</v>
       </c>
@@ -17344,10 +17360,10 @@
         <v>0.78105506671645442</v>
       </c>
       <c r="Z211" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="212" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="212" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>1946</v>
       </c>
@@ -17424,10 +17440,10 @@
         <v>0.86028969410928213</v>
       </c>
       <c r="Z212" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="213" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="213" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>1946</v>
       </c>
@@ -17504,10 +17520,10 @@
         <v>33.15637065638083</v>
       </c>
       <c r="Z213" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="214" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="214" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>1946</v>
       </c>
@@ -17584,10 +17600,10 @@
         <v>1.905661391781301</v>
       </c>
       <c r="Z214" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="215" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="215" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>1946</v>
       </c>
@@ -17664,10 +17680,10 @@
         <v>137.23943661967871</v>
       </c>
       <c r="Z215" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="216" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="216" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>1946</v>
       </c>
@@ -17744,10 +17760,10 @@
         <v>1.3669766669432539</v>
       </c>
       <c r="Z216" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="217" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="217" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>1946</v>
       </c>
@@ -17824,10 +17840,10 @@
         <v>7.941068139959774</v>
       </c>
       <c r="Z217" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="218" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="218" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>1946</v>
       </c>
@@ -17904,10 +17920,10 @@
         <v>0.63154857326063973</v>
       </c>
       <c r="Z218" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="219" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="219" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>1946</v>
       </c>
@@ -17984,10 +18000,10 @@
         <v>4.3872727272760033</v>
       </c>
       <c r="Z219" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="220" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="220" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>1946</v>
       </c>
@@ -18064,10 +18080,10 @@
         <v>7.6843028354309331</v>
       </c>
       <c r="Z220" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="221" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="221" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>1946</v>
       </c>
@@ -18144,10 +18160,10 @@
         <v>4.2611026033688466</v>
       </c>
       <c r="Z221" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="222" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="222" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>1946</v>
       </c>
@@ -18224,10 +18240,10 @@
         <v>6.2879788639374379</v>
       </c>
       <c r="Z222" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="223" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="223" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>1946</v>
       </c>
@@ -18304,10 +18320,10 @@
         <v>3.0979092299864499</v>
       </c>
       <c r="Z223" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="224" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="224" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>1946</v>
       </c>
@@ -18384,10 +18400,10 @@
         <v>2.1162939297140659</v>
       </c>
       <c r="Z224" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="225" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="225" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>1946</v>
       </c>
@@ -18464,10 +18480,10 @@
         <v>1.8366834170856989</v>
       </c>
       <c r="Z225" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="226" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="226" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>1946</v>
       </c>
@@ -18544,10 +18560,10 @@
         <v>6.2637526018423566</v>
       </c>
       <c r="Z226" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="227" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="227" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>1946</v>
       </c>
@@ -18624,10 +18640,10 @@
         <v>0.88096446700478126</v>
       </c>
       <c r="Z227" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="228" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="228" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>1946</v>
       </c>
@@ -18704,10 +18720,10 @@
         <v>8.0880206097057084</v>
       </c>
       <c r="Z228" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="229" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="229" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>1946</v>
       </c>
@@ -18784,10 +18800,10 @@
         <v>1.8611194104171529</v>
       </c>
       <c r="Z229" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="230" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="230" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>1946</v>
       </c>
@@ -18864,10 +18880,10 @@
         <v>1.878289896007145</v>
       </c>
       <c r="Z230" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="231" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="231" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>1946</v>
       </c>
@@ -18944,10 +18960,10 @@
         <v>1.145891086782892</v>
       </c>
       <c r="Z231" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="232" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="232" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>1946</v>
       </c>
@@ -19024,10 +19040,10 @@
         <v>4.6969919295670799</v>
       </c>
       <c r="Z232" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="233" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="233" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>1948</v>
       </c>
@@ -19104,10 +19120,10 @@
         <v>9.1286307053938653</v>
       </c>
       <c r="Z233" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="234" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="234" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>1948</v>
       </c>
@@ -19184,10 +19200,10 @@
         <v>12.552074513124539</v>
       </c>
       <c r="Z234" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="235" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="235" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>1948</v>
       </c>
@@ -19264,10 +19280,10 @@
         <v>11.669528829955411</v>
       </c>
       <c r="Z235" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="236" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="236" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>1948</v>
       </c>
@@ -19344,10 +19360,10 @@
         <v>10.43326996197672</v>
       </c>
       <c r="Z236" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="237" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="237" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>1950</v>
       </c>
@@ -19424,10 +19440,10 @@
         <v>1.0897075181574221</v>
       </c>
       <c r="Z237" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="238" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="238" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>1950</v>
       </c>
@@ -19504,10 +19520,10 @@
         <v>3.1844965675057071</v>
       </c>
       <c r="Z238" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="239" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="239" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>1950</v>
       </c>
@@ -19584,10 +19600,10 @@
         <v>5.3652127231244178</v>
       </c>
       <c r="Z239" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="240" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="240" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>1950</v>
       </c>
@@ -19664,10 +19680,10 @@
         <v>5.1841972361232083</v>
       </c>
       <c r="Z240" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="241" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="241" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>1950</v>
       </c>
@@ -19744,10 +19760,10 @@
         <v>1.3339975475168639</v>
       </c>
       <c r="Z241" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="242" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="242" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>1950</v>
       </c>
@@ -19824,10 +19840,10 @@
         <v>0.5467196819085498</v>
       </c>
       <c r="Z242" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="243" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="243" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>1950</v>
       </c>
@@ -19904,10 +19920,10 @@
         <v>0.99940085707901016</v>
       </c>
       <c r="Z243" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="244" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="244" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>1950</v>
       </c>
@@ -19984,10 +20000,10 @@
         <v>2.9961340206185558</v>
       </c>
       <c r="Z244" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="245" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="245" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>1950</v>
       </c>
@@ -20064,10 +20080,10 @@
         <v>5.1139019084568522</v>
       </c>
       <c r="Z245" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="246" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="246" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>1964</v>
       </c>
@@ -20144,10 +20160,10 @@
         <v>2.6609399684045361</v>
       </c>
       <c r="Z246" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="247" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="247" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>1964</v>
       </c>
@@ -20224,10 +20240,10 @@
         <v>9.2359693877547837</v>
       </c>
       <c r="Z247" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="248" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="248" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>1964</v>
       </c>
@@ -20304,10 +20320,10 @@
         <v>1.666666666666335</v>
       </c>
       <c r="Z248" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="249" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="249" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>1964</v>
       </c>
@@ -20384,10 +20400,10 @@
         <v>0.87638786084374043</v>
       </c>
       <c r="Z249" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="250" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="250" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>1964</v>
       </c>
@@ -20464,10 +20480,10 @@
         <v>2.3750136986304891</v>
       </c>
       <c r="Z250" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="251" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="251" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>1964</v>
       </c>
@@ -20544,10 +20560,10 @@
         <v>2.5256238587949169</v>
       </c>
       <c r="Z251" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="252" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="252" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>1964</v>
       </c>
@@ -20624,10 +20640,10 @@
         <v>1.192206819033522</v>
       </c>
       <c r="Z252" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="253" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="253" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>1964</v>
       </c>
@@ -20704,10 +20720,10 @@
         <v>2.4528224984722549</v>
       </c>
       <c r="Z253" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="254" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="254" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>1964</v>
       </c>
@@ -20784,10 +20800,10 @@
         <v>1.4794520547939931</v>
       </c>
       <c r="Z254" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="255" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="255" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>1964</v>
       </c>
@@ -20864,10 +20880,10 @@
         <v>1.8081991215224329</v>
       </c>
       <c r="Z255" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="256" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="256" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>1964</v>
       </c>
@@ -20944,10 +20960,10 @@
         <v>1.392733564013894</v>
       </c>
       <c r="Z256" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="257" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="257" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>1964</v>
       </c>
@@ -21024,10 +21040,10 @@
         <v>2.1953684210524518</v>
       </c>
       <c r="Z257" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="258" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="258" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>1964</v>
       </c>
@@ -21104,10 +21120,10 @@
         <v>0.5235312211630071</v>
       </c>
       <c r="Z258" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="259" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="259" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>1964</v>
       </c>
@@ -21184,10 +21200,10 @@
         <v>1.040998217468913</v>
       </c>
       <c r="Z259" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="260" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="260" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>1964</v>
       </c>
@@ -21264,10 +21280,10 @@
         <v>0.92550216120047391</v>
       </c>
       <c r="Z260" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="261" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="261" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>1964</v>
       </c>
@@ -21344,10 +21360,10 @@
         <v>0.81690140845080184</v>
       </c>
       <c r="Z261" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="262" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="262" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>1964</v>
       </c>
@@ -21424,10 +21440,10 @@
         <v>0.36619718309873878</v>
       </c>
       <c r="Z262" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="263" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="263" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>1964</v>
       </c>
@@ -21504,10 +21520,10 @@
         <v>1.9894115604932849</v>
       </c>
       <c r="Z263" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="264" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="264" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>1964</v>
       </c>
@@ -21584,10 +21600,10 @@
         <v>0.75641025641077098</v>
       </c>
       <c r="Z264" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="265" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="265" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>1964</v>
       </c>
@@ -21664,10 +21680,10 @@
         <v>2.1769499417931679</v>
       </c>
       <c r="Z265" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="266" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="266" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>1964</v>
       </c>
@@ -21744,10 +21760,10 @@
         <v>6.0754262097468317</v>
       </c>
       <c r="Z266" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="267" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="267" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>1964</v>
       </c>
@@ -21824,10 +21840,10 @@
         <v>2.5718125960067129</v>
       </c>
       <c r="Z267" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="268" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="268" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>2000</v>
       </c>
@@ -21904,10 +21920,10 @@
         <v>114.7198124267257</v>
       </c>
       <c r="Z268" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="269" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="269" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>2000</v>
       </c>
@@ -21984,10 +22000,10 @@
         <v>186.86956521739549</v>
       </c>
       <c r="Z269" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="270" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="270" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>2000</v>
       </c>
@@ -22064,10 +22080,10 @@
         <v>54.079834824518223</v>
       </c>
       <c r="Z270" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="271" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="271" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>2000</v>
       </c>
@@ -22144,10 +22160,10 @@
         <v>70.534793814427516</v>
       </c>
       <c r="Z271" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="272" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="272" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>2000</v>
       </c>
@@ -22224,10 +22240,10 @@
         <v>51.107102593011042</v>
       </c>
       <c r="Z272" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="273" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="273" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>2000</v>
       </c>
@@ -22304,10 +22320,10 @@
         <v>48.926256372905449</v>
       </c>
       <c r="Z273" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="274" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="274" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>2000</v>
       </c>
@@ -22384,10 +22400,10 @@
         <v>34.563274098004811</v>
       </c>
       <c r="Z274" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="275" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="275" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>2000</v>
       </c>
@@ -22464,10 +22480,10 @@
         <v>50.447761194038222</v>
       </c>
       <c r="Z275" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="276" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="276" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>2000</v>
       </c>
@@ -22544,10 +22560,10 @@
         <v>2.42188431387958</v>
       </c>
       <c r="Z276" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="277" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="277" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>2000</v>
       </c>
@@ -22624,10 +22640,10 @@
         <v>121.2867383512335</v>
       </c>
       <c r="Z277" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="278" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="278" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>2000</v>
       </c>
@@ -22704,10 +22720,10 @@
         <v>28.79393173198779</v>
       </c>
       <c r="Z278" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="279" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="279" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>2000</v>
       </c>
@@ -22784,10 +22800,10 @@
         <v>1.623178384584284</v>
       </c>
       <c r="Z279" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="280" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="280" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>2000</v>
       </c>
@@ -22864,10 +22880,10 @@
         <v>2.5301861576179809</v>
       </c>
       <c r="Z280" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="281" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="281" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>2000</v>
       </c>
@@ -22944,10 +22960,10 @@
         <v>244.5576208178218</v>
       </c>
       <c r="Z281" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="282" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="282" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>2000</v>
       </c>
@@ -23024,10 +23040,10 @@
         <v>1.246007088784542</v>
       </c>
       <c r="Z282" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="283" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="283" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>2000</v>
       </c>
@@ -23104,10 +23120,10 @@
         <v>159.64367816088111</v>
       </c>
       <c r="Z283" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="284" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="284" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>2000</v>
       </c>
@@ -23184,10 +23200,10 @@
         <v>1.1462233699160369</v>
       </c>
       <c r="Z284" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="285" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="285" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>2000</v>
       </c>
@@ -23264,10 +23280,10 @@
         <v>1.2906654800743651</v>
       </c>
       <c r="Z285" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="286" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="286" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>2000</v>
       </c>
@@ -23344,10 +23360,10 @@
         <v>7.0406420765027153</v>
       </c>
       <c r="Z286" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="287" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="287" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>2000</v>
       </c>
@@ -23424,10 +23440,10 @@
         <v>1.8238251459245629</v>
       </c>
       <c r="Z287" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="288" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="288" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>2000</v>
       </c>
@@ -23504,10 +23520,10 @@
         <v>1.6213782081416019</v>
       </c>
       <c r="Z288" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="289" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="289" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>2000</v>
       </c>
@@ -23584,10 +23600,10 @@
         <v>1.4193558612817549</v>
       </c>
       <c r="Z289" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="290" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="290" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>2000</v>
       </c>
@@ -23664,10 +23680,10 @@
         <v>1.101115014510446</v>
       </c>
       <c r="Z290" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="291" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="291" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>2000</v>
       </c>
@@ -23744,10 +23760,10 @@
         <v>1.1513426996269971</v>
       </c>
       <c r="Z291" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="292" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="292" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>2000</v>
       </c>
@@ -23824,10 +23840,10 @@
         <v>3.657765337771723</v>
       </c>
       <c r="Z292" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="293" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="293" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>2000</v>
       </c>
@@ -23904,10 +23920,10 @@
         <v>3.1194676243794039</v>
       </c>
       <c r="Z293" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="294" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="294" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>2000</v>
       </c>
@@ -23984,10 +24000,10 @@
         <v>2.6412445417100048</v>
       </c>
       <c r="Z294" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="295" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="295" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>2000</v>
       </c>
@@ -24064,10 +24080,10 @@
         <v>404.75056689340357</v>
       </c>
       <c r="Z295" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="296" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="296" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>2000</v>
       </c>
@@ -24144,10 +24160,10 @@
         <v>1.121992658961934</v>
       </c>
       <c r="Z296" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="297" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="297" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>2000</v>
       </c>
@@ -24224,10 +24240,10 @@
         <v>0.80530659330945531</v>
       </c>
       <c r="Z297" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="298" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="298" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>2000</v>
       </c>
@@ -24304,10 +24320,10 @@
         <v>3.6903860711583532</v>
       </c>
       <c r="Z298" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="299" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="299" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>2000</v>
       </c>
@@ -24384,10 +24400,10 @@
         <v>0.60288227278364381</v>
       </c>
       <c r="Z299" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="300" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="300" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>2000</v>
       </c>
@@ -24464,10 +24480,10 @@
         <v>0.90005907495585413</v>
       </c>
       <c r="Z300" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="301" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="301" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>2000</v>
       </c>
@@ -24544,10 +24560,10 @@
         <v>2.0867430441897699</v>
       </c>
       <c r="Z301" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="302" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="302" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>2000</v>
       </c>
@@ -24624,10 +24640,10 @@
         <v>1.1240352381697081</v>
       </c>
       <c r="Z302" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="303" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="303" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>2000</v>
       </c>
@@ -24704,10 +24720,10 @@
         <v>0.6020779430794132</v>
       </c>
       <c r="Z303" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="304" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="304" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>2000</v>
       </c>
@@ -24784,10 +24800,10 @@
         <v>1.492245354198783</v>
       </c>
       <c r="Z304" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="305" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="305" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>2000</v>
       </c>
@@ -24864,10 +24880,10 @@
         <v>0.71377758731550134</v>
       </c>
       <c r="Z305" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="306" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="306" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>2000</v>
       </c>
@@ -24944,10 +24960,10 @@
         <v>5.6232994826587781</v>
       </c>
       <c r="Z306" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="307" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="307" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>2000</v>
       </c>
@@ -25024,10 +25040,10 @@
         <v>0.89335170013827048</v>
       </c>
       <c r="Z307" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="308" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="308" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>2000</v>
       </c>
@@ -25104,10 +25120,10 @@
         <v>2.0117498950904542</v>
       </c>
       <c r="Z308" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="309" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="309" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>2000</v>
       </c>
@@ -25184,10 +25200,10 @@
         <v>0.92078104210848355</v>
       </c>
       <c r="Z309" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="310" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="310" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>2000</v>
       </c>
@@ -25264,10 +25280,10 @@
         <v>1.794573855850907</v>
       </c>
       <c r="Z310" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="311" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="311" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>2000</v>
       </c>
@@ -25344,10 +25360,10 @@
         <v>0.65989699168918403</v>
       </c>
       <c r="Z311" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="312" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="312" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>2000</v>
       </c>
@@ -25424,10 +25440,10 @@
         <v>1.646101051401885</v>
       </c>
       <c r="Z312" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="313" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="313" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>2000</v>
       </c>
@@ -25504,10 +25520,10 @@
         <v>1.399046983264898</v>
       </c>
       <c r="Z313" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="314" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="314" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>2069</v>
       </c>
@@ -25584,10 +25600,10 @@
         <v>4.0858389248615712</v>
       </c>
       <c r="Z314" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="315" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="315" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>2069</v>
       </c>
@@ -25664,10 +25680,10 @@
         <v>2.8426478725575448</v>
       </c>
       <c r="Z315" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="316" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="316" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>2069</v>
       </c>
@@ -25744,10 +25760,10 @@
         <v>5.2555910543134132</v>
       </c>
       <c r="Z316" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="317" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="317" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>2069</v>
       </c>
@@ -25824,10 +25840,10 @@
         <v>1.5709222934040421</v>
       </c>
       <c r="Z317" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="318" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="318" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>2069</v>
       </c>
@@ -25904,10 +25920,10 @@
         <v>1.1081163383628869</v>
       </c>
       <c r="Z318" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="319" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="319" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>2069</v>
       </c>
@@ -25984,10 +26000,10 @@
         <v>0.57203620168419989</v>
       </c>
       <c r="Z319" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="320" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="320" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>2069</v>
       </c>
@@ -26064,10 +26080,10 @@
         <v>5.5572962439340756</v>
       </c>
       <c r="Z320" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="321" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="321" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>2069</v>
       </c>
@@ -26144,10 +26160,10 @@
         <v>2.046879658200794</v>
       </c>
       <c r="Z321" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="322" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="322" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>2069</v>
       </c>
@@ -26224,10 +26240,10 @@
         <v>5.5096375799451458</v>
       </c>
       <c r="Z322" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="323" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="323" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>2069</v>
       </c>
@@ -26304,10 +26320,10 @@
         <v>1.4311987634755701</v>
       </c>
       <c r="Z323" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="324" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="324" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>2069</v>
       </c>
@@ -26384,10 +26400,10 @@
         <v>4.1708230151255634</v>
       </c>
       <c r="Z324" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="325" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="325" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>2069</v>
       </c>
@@ -26464,10 +26480,10 @@
         <v>3.036769373693565</v>
       </c>
       <c r="Z325" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="326" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="326" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>2069</v>
       </c>
@@ -26544,10 +26560,10 @@
         <v>1.9407652188905491</v>
       </c>
       <c r="Z326" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="327" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="327" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>2069</v>
       </c>
@@ -26624,10 +26640,10 @@
         <v>3.403720597442065</v>
       </c>
       <c r="Z327" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="328" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="328" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>2069</v>
       </c>
@@ -26704,10 +26720,10 @@
         <v>2.4597633122086831</v>
       </c>
       <c r="Z328" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="329" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="329" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>2069</v>
       </c>
@@ -26784,10 +26800,10 @@
         <v>1.78858999350229</v>
       </c>
       <c r="Z329" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="330" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="330" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>2069</v>
       </c>
@@ -26864,10 +26880,10 @@
         <v>2.262887877534066</v>
       </c>
       <c r="Z330" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="331" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="331" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>2086</v>
       </c>
@@ -26944,10 +26960,10 @@
         <v>4.0468510748304736</v>
       </c>
       <c r="Z331" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="332" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="332" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>2086</v>
       </c>
@@ -27024,10 +27040,10 @@
         <v>73.460466867469904</v>
       </c>
       <c r="Z332" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="333" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="333" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>2086</v>
       </c>
@@ -27104,10 +27120,10 @@
         <v>68.062294543063743</v>
       </c>
       <c r="Z333" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="334" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="334" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>2086</v>
       </c>
@@ -27184,10 +27200,10 @@
         <v>62.63590830283183</v>
       </c>
       <c r="Z334" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="335" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="335" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>2086</v>
       </c>
@@ -27264,10 +27280,10 @@
         <v>27.290757635858771</v>
       </c>
       <c r="Z335" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="336" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="336" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>2088</v>
       </c>
@@ -27344,10 +27360,10 @@
         <v>9.1751042287074949</v>
       </c>
       <c r="Z336" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="337" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="337" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>2090</v>
       </c>
@@ -27424,10 +27440,10 @@
         <v>4.5817474048443003</v>
       </c>
       <c r="Z337" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="338" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="338" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>2090</v>
       </c>
@@ -27504,10 +27520,10 @@
         <v>8.7895460797799245</v>
       </c>
       <c r="Z338" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="339" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="339" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>2090</v>
       </c>
@@ -27584,10 +27600,10 @@
         <v>2.3278094251683501</v>
       </c>
       <c r="Z339" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="340" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="340" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>2090</v>
       </c>
@@ -27664,10 +27680,10 @@
         <v>9.9729729729730145</v>
       </c>
       <c r="Z340" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="341" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="341" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>2090</v>
       </c>
@@ -27744,10 +27760,10 @@
         <v>4.9458997722095353</v>
       </c>
       <c r="Z341" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="342" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="342" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>2090</v>
       </c>
@@ -27824,10 +27840,10 @@
         <v>1.076385153308216</v>
       </c>
       <c r="Z342" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="343" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="343" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>2090</v>
       </c>
@@ -27904,10 +27920,10 @@
         <v>1.5781250000000691</v>
       </c>
       <c r="Z343" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="344" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="344" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>2090</v>
       </c>
@@ -27984,10 +28000,10 @@
         <v>1.400000000000017</v>
       </c>
       <c r="Z344" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="345" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="345" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>2090</v>
       </c>
@@ -28064,10 +28080,10 @@
         <v>5.3243243243242766</v>
       </c>
       <c r="Z345" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="346" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="346" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>2090</v>
       </c>
@@ -28144,10 +28160,10 @@
         <v>1.842105263157926</v>
       </c>
       <c r="Z346" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="347" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="347" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>2090</v>
       </c>
@@ -28224,10 +28240,10 @@
         <v>2.4736842105262768</v>
       </c>
       <c r="Z347" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="348" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="348" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>2090</v>
       </c>
@@ -28304,10 +28320,10 @@
         <v>1.027027027026914</v>
       </c>
       <c r="Z348" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="349" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="349" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>2090</v>
       </c>
@@ -28384,10 +28400,10 @@
         <v>3.4878331402086111</v>
       </c>
       <c r="Z349" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="350" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="350" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>2090</v>
       </c>
@@ -28464,10 +28480,10 @@
         <v>1.162162162162214</v>
       </c>
       <c r="Z350" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="351" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="351" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>2090</v>
       </c>
@@ -28544,10 +28560,10 @@
         <v>2.1363636363636371</v>
       </c>
       <c r="Z351" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="352" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="352" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>2090</v>
       </c>
@@ -28624,10 +28640,10 @@
         <v>6.1578947368421284</v>
       </c>
       <c r="Z352" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="353" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="353" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>2090</v>
       </c>
@@ -28704,10 +28720,10 @@
         <v>1.5303030303030969</v>
       </c>
       <c r="Z353" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="354" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="354" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>2090</v>
       </c>
@@ -28784,10 +28800,10 @@
         <v>5.1891891891890971</v>
       </c>
       <c r="Z354" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="355" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="355" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>2090</v>
       </c>
@@ -28864,10 +28880,10 @@
         <v>5.3207735911970193</v>
       </c>
       <c r="Z355" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="356" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="356" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>2090</v>
       </c>
@@ -28944,10 +28960,10 @@
         <v>4.4054054054053404</v>
       </c>
       <c r="Z356" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="357" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="357" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>2090</v>
       </c>
@@ -29024,10 +29040,10 @@
         <v>2.9729729729730061</v>
       </c>
       <c r="Z357" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="358" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="358" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>2090</v>
       </c>
@@ -29104,10 +29120,10 @@
         <v>1.9850746268656849</v>
       </c>
       <c r="Z358" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="359" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="359" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>2090</v>
       </c>
@@ -29184,10 +29200,10 @@
         <v>4.457462323772508</v>
       </c>
       <c r="Z359" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="360" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="360" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>2090</v>
       </c>
@@ -29264,10 +29280,10 @@
         <v>3.3882063882064348</v>
       </c>
       <c r="Z360" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="361" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="361" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>2090</v>
       </c>
@@ -29344,10 +29360,10 @@
         <v>3.7297297297296792</v>
       </c>
       <c r="Z361" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="362" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="362" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>2090</v>
       </c>
@@ -29424,10 +29440,10 @@
         <v>17.358116480793139</v>
       </c>
       <c r="Z362" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="363" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="363" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>2090</v>
       </c>
@@ -29504,10 +29520,10 @@
         <v>15.9497206703911</v>
       </c>
       <c r="Z363" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="364" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="364" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>2090</v>
       </c>
@@ -29584,10 +29600,10 @@
         <v>4.3783783783783763</v>
       </c>
       <c r="Z364" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="365" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="365" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>2090</v>
       </c>
@@ -29664,10 +29680,10 @@
         <v>1.5135135135135871</v>
       </c>
       <c r="Z365" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="366" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="366" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>2090</v>
       </c>
@@ -29744,10 +29760,10 @@
         <v>0.54054054054060097</v>
       </c>
       <c r="Z366" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="367" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="367" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>2090</v>
       </c>
@@ -29824,10 +29840,10 @@
         <v>0.70270270270274526</v>
       </c>
       <c r="Z367" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="368" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="368" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>2090</v>
       </c>
@@ -29904,10 +29920,10 @@
         <v>1.6486486486486469</v>
       </c>
       <c r="Z368" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="369" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="369" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>2090</v>
       </c>
@@ -29984,10 +30000,10 @@
         <v>3.9189189189189069</v>
       </c>
       <c r="Z369" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="370" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="370" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>2090</v>
       </c>
@@ -30064,10 +30080,10 @@
         <v>3.1081081081080661</v>
       </c>
       <c r="Z370" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="371" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="371" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>2090</v>
       </c>
@@ -30144,10 +30160,10 @@
         <v>1.210526315789457</v>
       </c>
       <c r="Z371" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="372" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="372" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>2090</v>
       </c>
@@ -30224,10 +30240,10 @@
         <v>1.710526315789461</v>
       </c>
       <c r="Z372" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="373" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="373" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>2090</v>
       </c>
@@ -30304,10 +30320,10 @@
         <v>1.815789473684186</v>
       </c>
       <c r="Z373" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="374" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="374" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>2090</v>
       </c>
@@ -30384,10 +30400,10 @@
         <v>2.6486486486487171</v>
       </c>
       <c r="Z374" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="375" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="375" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>2090</v>
       </c>
@@ -30464,10 +30480,10 @@
         <v>6.6756756756757207</v>
       </c>
       <c r="Z375" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="376" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="376" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>2090</v>
       </c>
@@ -30544,10 +30560,10 @@
         <v>6.4736842105263044</v>
       </c>
       <c r="Z376" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="377" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="377" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>2090</v>
       </c>
@@ -30624,10 +30640,10 @@
         <v>5.6732865462146593</v>
       </c>
       <c r="Z377" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="378" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="378" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>2090</v>
       </c>
@@ -30704,10 +30720,10 @@
         <v>6.0526315789472864</v>
       </c>
       <c r="Z378" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="379" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="379" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>2090</v>
       </c>
@@ -30784,10 +30800,10 @@
         <v>3.4243845252050811</v>
       </c>
       <c r="Z379" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="380" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="380" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>2090</v>
       </c>
@@ -30864,10 +30880,10 @@
         <v>2.3454545454545701</v>
       </c>
       <c r="Z380" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="381" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="381" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>2090</v>
       </c>
@@ -30944,10 +30960,10 @@
         <v>8.912523900573591</v>
       </c>
       <c r="Z381" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="382" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="382" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>2090</v>
       </c>
@@ -31024,10 +31040,10 @@
         <v>4.7297297297297476</v>
       </c>
       <c r="Z382" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="383" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="383" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>2090</v>
       </c>
@@ -31104,10 +31120,10 @@
         <v>12.369274809160229</v>
       </c>
       <c r="Z383" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="384" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="384" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>2090</v>
       </c>
@@ -31184,10 +31200,10 @@
         <v>2.9913378248316582</v>
       </c>
       <c r="Z384" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="385" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="385" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>2090</v>
       </c>
@@ -31264,10 +31280,10 @@
         <v>5.5088709677418599</v>
       </c>
       <c r="Z385" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="386" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="386" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>2090</v>
       </c>
@@ -31344,10 +31360,10 @@
         <v>1.8372093023256371</v>
       </c>
       <c r="Z386" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="387" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="387" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>2090</v>
       </c>
@@ -31424,10 +31440,10 @@
         <v>0.36968215158929252</v>
       </c>
       <c r="Z387" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="388" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="388" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>2090</v>
       </c>
@@ -31504,10 +31520,10 @@
         <v>2.7147848473703751</v>
       </c>
       <c r="Z388" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="389" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="389" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>2090</v>
       </c>
@@ -31584,10 +31600,10 @@
         <v>3.3319167020824509</v>
       </c>
       <c r="Z389" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="390" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="390" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>2090</v>
       </c>
@@ -31664,10 +31680,10 @@
         <v>1.083333333333399</v>
       </c>
       <c r="Z390" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="391" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="391" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>2090</v>
       </c>
@@ -31744,10 +31760,10 @@
         <v>0.79166666666667207</v>
       </c>
       <c r="Z391" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="392" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="392" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>2090</v>
       </c>
@@ -31824,10 +31840,10 @@
         <v>5.3111982357265539</v>
       </c>
       <c r="Z392" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="393" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="393" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>2090</v>
       </c>
@@ -31904,10 +31920,10 @@
         <v>1.2765957446808991</v>
       </c>
       <c r="Z393" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="394" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="394" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>2090</v>
       </c>
@@ -31984,10 +32000,10 @@
         <v>0.72340425531916375</v>
       </c>
       <c r="Z394" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="395" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="395" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>2093</v>
       </c>
@@ -32064,10 +32080,10 @@
         <v>6.6026362321170717</v>
       </c>
       <c r="Z395" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="396" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="396" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>2093</v>
       </c>
@@ -32144,10 +32160,10 @@
         <v>6.0829103214889511</v>
       </c>
       <c r="Z396" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="397" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="397" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>2093</v>
       </c>
@@ -32224,10 +32240,10 @@
         <v>7.4646744642010949</v>
       </c>
       <c r="Z397" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="398" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="398" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>2093</v>
       </c>
@@ -32304,10 +32320,10 @@
         <v>4.5555555555552996</v>
       </c>
       <c r="Z398" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="399" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="399" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>2093</v>
       </c>
@@ -32384,10 +32400,10 @@
         <v>41.509214354995173</v>
       </c>
       <c r="Z399" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="400" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="400" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>2093</v>
       </c>
@@ -32464,10 +32480,10 @@
         <v>8.1712896016827052</v>
       </c>
       <c r="Z400" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="401" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="401" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>2093</v>
       </c>
@@ -32544,10 +32560,10 @@
         <v>6.0021652832913457</v>
       </c>
       <c r="Z401" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="402" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="402" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>2093</v>
       </c>
@@ -32624,10 +32640,10 @@
         <v>60.707878787878848</v>
       </c>
       <c r="Z402" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="403" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="403" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>2093</v>
       </c>
@@ -32704,10 +32720,10 @@
         <v>1.3238434163700561</v>
       </c>
       <c r="Z403" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="404" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="404" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>2093</v>
       </c>
@@ -32784,10 +32800,10 @@
         <v>1.851481237656103</v>
       </c>
       <c r="Z404" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="405" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="405" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>2093</v>
       </c>
@@ -32864,10 +32880,10 @@
         <v>1.392028554431938</v>
       </c>
       <c r="Z405" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="406" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="406" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>2093</v>
       </c>
@@ -32944,10 +32960,10 @@
         <v>2.401334074485916</v>
       </c>
       <c r="Z406" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="407" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="407" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>2093</v>
       </c>
@@ -33024,10 +33040,10 @@
         <v>1.732062780269124</v>
       </c>
       <c r="Z407" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="408" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="408" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>2093</v>
       </c>
@@ -33104,10 +33120,10 @@
         <v>1.142656112576744</v>
       </c>
       <c r="Z408" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="409" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="409" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>2093</v>
       </c>
@@ -33184,10 +33200,10 @@
         <v>4.241754302103236</v>
       </c>
       <c r="Z409" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="410" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="410" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>2093</v>
       </c>
@@ -33264,10 +33280,10 @@
         <v>2.5630953550033939</v>
       </c>
       <c r="Z410" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="411" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="411" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>2093</v>
       </c>
@@ -33344,10 +33360,10 @@
         <v>1.3361344537815629</v>
       </c>
       <c r="Z411" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="412" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="412" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>2093</v>
       </c>
@@ -33424,10 +33440,10 @@
         <v>1.1987179487179731</v>
       </c>
       <c r="Z412" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="413" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="413" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>2093</v>
       </c>
@@ -33504,10 +33520,10 @@
         <v>1.476605673584688</v>
       </c>
       <c r="Z413" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="414" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="414" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>2093</v>
       </c>
@@ -33584,10 +33600,10 @@
         <v>1.124608150470197</v>
       </c>
       <c r="Z414" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="415" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="415" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>2093</v>
       </c>
@@ -33664,10 +33680,10 @@
         <v>0.69511207129342245</v>
       </c>
       <c r="Z415" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="416" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="416" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>2093</v>
       </c>
@@ -33744,10 +33760,10 @@
         <v>1.093528816986947</v>
       </c>
       <c r="Z416" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="417" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="417" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>2093</v>
       </c>
@@ -33824,10 +33840,10 @@
         <v>1.209124120110658</v>
       </c>
       <c r="Z417" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="418" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="418" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>2093</v>
       </c>
@@ -33904,10 +33920,10 @@
         <v>0.99954404523058016</v>
       </c>
       <c r="Z418" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="419" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="419" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>2093</v>
       </c>
@@ -33984,10 +34000,10 @@
         <v>0.94255111976639616</v>
       </c>
       <c r="Z419" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="420" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="420" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>2093</v>
       </c>
@@ -34064,10 +34080,10 @@
         <v>0.62324393358876062</v>
       </c>
       <c r="Z420" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="421" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="421" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>2093</v>
       </c>
@@ -34144,10 +34160,10 @@
         <v>2.5081110310023051</v>
       </c>
       <c r="Z421" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="422" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="422" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>2093</v>
       </c>
@@ -34224,10 +34240,10 @@
         <v>2.2792193390996869</v>
       </c>
       <c r="Z422" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="423" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="423" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>2093</v>
       </c>
@@ -34304,10 +34320,10 @@
         <v>1.5949530896149611</v>
       </c>
       <c r="Z423" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="424" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="424" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>2093</v>
       </c>
@@ -34384,10 +34400,10 @@
         <v>2.3012516184721861</v>
       </c>
       <c r="Z424" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="425" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="425" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>2093</v>
       </c>
@@ -34464,10 +34480,10 @@
         <v>1.6539391010151809</v>
       </c>
       <c r="Z425" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="426" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="426" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>2093</v>
       </c>
@@ -34544,10 +34560,10 @@
         <v>3.9067734887107521</v>
       </c>
       <c r="Z426" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="427" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="427" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>2097</v>
       </c>
@@ -34624,10 +34640,10 @@
         <v>3.2248408354741511</v>
       </c>
       <c r="Z427" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="428" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="428" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>2097</v>
       </c>
@@ -34704,10 +34720,10 @@
         <v>4.4890705065837606</v>
       </c>
       <c r="Z428" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="429" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="429" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>2097</v>
       </c>
@@ -34784,10 +34800,10 @@
         <v>4.0815538147866972</v>
       </c>
       <c r="Z429" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="430" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="430" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>2097</v>
       </c>
@@ -34864,10 +34880,10 @@
         <v>4.6386117136660454</v>
       </c>
       <c r="Z430" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="431" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="431" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>2097</v>
       </c>
@@ -34944,10 +34960,10 @@
         <v>2.7886797581028091</v>
       </c>
       <c r="Z431" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="432" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="432" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>2097</v>
       </c>
@@ -35024,10 +35040,10 @@
         <v>1.567417090292766</v>
       </c>
       <c r="Z432" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="433" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="433" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>2097</v>
       </c>
@@ -35104,10 +35120,10 @@
         <v>4.1573519163761814</v>
       </c>
       <c r="Z433" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="434" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="434" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>2097</v>
       </c>
@@ -35184,10 +35200,10 @@
         <v>6.3422066863852233</v>
       </c>
       <c r="Z434" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="435" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="435" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>2097</v>
       </c>
@@ -35264,10 +35280,10 @@
         <v>3.1503778465282921</v>
       </c>
       <c r="Z435" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="436" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="436" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>2148</v>
       </c>
@@ -35344,10 +35360,10 @@
         <v>0.65951534733470529</v>
       </c>
       <c r="Z436" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="437" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="437" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>2148</v>
       </c>
@@ -35424,10 +35440,10 @@
         <v>0.7062534284146994</v>
       </c>
       <c r="Z437" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="438" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="438" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>2148</v>
       </c>
@@ -35504,10 +35520,10 @@
         <v>0.5826558265583518</v>
       </c>
       <c r="Z438" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="439" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="439" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>2148</v>
       </c>
@@ -35584,10 +35600,10 @@
         <v>0.97390636991557689</v>
       </c>
       <c r="Z439" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="440" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="440" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>2148</v>
       </c>
@@ -35664,10 +35680,10 @@
         <v>0.2837362121566514</v>
       </c>
       <c r="Z440" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="441" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="441" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>2148</v>
       </c>
@@ -35744,10 +35760,10 @@
         <v>1.48498706300018</v>
       </c>
       <c r="Z441" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="442" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="442" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>2148</v>
       </c>
@@ -35824,10 +35840,10 @@
         <v>0.98607624911202063</v>
       </c>
       <c r="Z442" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="443" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="443" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>2148</v>
       </c>
@@ -35904,10 +35920,10 @@
         <v>0.89945377301233387</v>
       </c>
       <c r="Z443" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="444" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="444" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>2148</v>
       </c>
@@ -35984,10 +36000,10 @@
         <v>0.50915982312006669</v>
       </c>
       <c r="Z444" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="445" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="445" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>2148</v>
       </c>
@@ -36064,10 +36080,10 @@
         <v>1.066291400714104</v>
       </c>
       <c r="Z445" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="446" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="446" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>2259</v>
       </c>
@@ -36144,10 +36160,10 @@
         <v>1.483037934076636</v>
       </c>
       <c r="Z446" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="447" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="447" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>2259</v>
       </c>
@@ -36224,10 +36240,10 @@
         <v>0.94047498736735735</v>
       </c>
       <c r="Z447" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="448" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="448" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>2259</v>
       </c>
@@ -36304,10 +36320,10 @@
         <v>0.69354297224716566</v>
       </c>
       <c r="Z448" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="449" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="449" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>2259</v>
       </c>
@@ -36384,10 +36400,10 @@
         <v>1.860545537951233</v>
       </c>
       <c r="Z449" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="450" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="450" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>2259</v>
       </c>
@@ -36464,10 +36480,10 @@
         <v>1.1784747026729989</v>
       </c>
       <c r="Z450" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="451" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="451" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>2259</v>
       </c>
@@ -36544,10 +36560,10 @@
         <v>1.2085106382978741</v>
       </c>
       <c r="Z451" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="452" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="452" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>2259</v>
       </c>
@@ -36624,10 +36640,10 @@
         <v>0.88622726638448424</v>
       </c>
       <c r="Z452" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="453" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="453" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>2259</v>
       </c>
@@ -36704,10 +36720,10 @@
         <v>1.5059714535391791</v>
       </c>
       <c r="Z453" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="454" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="454" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>2259</v>
       </c>
@@ -36784,10 +36800,10 @@
         <v>1.6210766852611049</v>
       </c>
       <c r="Z454" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="455" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="455" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>2259</v>
       </c>
@@ -36864,10 +36880,10 @@
         <v>1.289386217593617</v>
       </c>
       <c r="Z455" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="456" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="456" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>2259</v>
       </c>
@@ -36944,10 +36960,10 @@
         <v>0.65617977528089899</v>
       </c>
       <c r="Z456" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="457" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="457" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>1866</v>
       </c>
@@ -37026,10 +37042,10 @@
         <v>20.72000000000002</v>
       </c>
       <c r="Z457" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="458" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="458" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>1866</v>
       </c>
@@ -37108,10 +37124,10 @@
         <v>7.5600000000008531</v>
       </c>
       <c r="Z458" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="459" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="459" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>1866</v>
       </c>
@@ -37190,10 +37206,10 @@
         <v>19.559999999999889</v>
       </c>
       <c r="Z459" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="460" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="460" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>1866</v>
       </c>
@@ -37272,10 +37288,10 @@
         <v>4.4600000000002638</v>
       </c>
       <c r="Z460" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="461" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="461" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>1866</v>
       </c>
@@ -37354,10 +37370,10 @@
         <v>11.840000000000828</v>
       </c>
       <c r="Z461" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="462" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="462" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>1866</v>
       </c>
@@ -37436,10 +37452,10 @@
         <v>12.980000000004566</v>
       </c>
       <c r="Z462" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="463" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="463" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>1866</v>
       </c>
@@ -37518,10 +37534,10 @@
         <v>19.659999999998945</v>
       </c>
       <c r="Z463" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="464" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="464" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>1866</v>
       </c>
@@ -37600,10 +37616,10 @@
         <v>10.599999999999454</v>
       </c>
       <c r="Z464" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="465" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="465" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>1866</v>
       </c>
@@ -37682,10 +37698,10 @@
         <v>12.580000000002656</v>
       </c>
       <c r="Z465" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="466" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="466" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>1866</v>
       </c>
@@ -37764,10 +37780,10 @@
         <v>20.999999999999378</v>
       </c>
       <c r="Z466" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="467" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="467" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>1866</v>
       </c>
@@ -37846,10 +37862,10 @@
         <v>12.5</v>
       </c>
       <c r="Z467" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="468" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="468" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>1866</v>
       </c>
@@ -37928,10 +37944,10 @@
         <v>20.420000000000019</v>
       </c>
       <c r="Z468" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="469" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="469" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>1866</v>
       </c>
@@ -38010,10 +38026,10 @@
         <v>16.019999999997481</v>
       </c>
       <c r="Z469" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="470" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="470" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>1866</v>
       </c>
@@ -38092,10 +38108,10 @@
         <v>20.380000000000102</v>
       </c>
       <c r="Z470" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="471" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="471" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>1866</v>
       </c>
@@ -38174,10 +38190,10 @@
         <v>20.41999999999576</v>
       </c>
       <c r="Z471" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="472" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="472" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>1866</v>
       </c>
@@ -38256,10 +38272,10 @@
         <v>28.78000000000042</v>
       </c>
       <c r="Z472" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="473" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="473" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>1866</v>
       </c>
@@ -38338,10 +38354,10 @@
         <v>16.860000000002628</v>
       </c>
       <c r="Z473" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="474" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="474" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>1866</v>
       </c>
@@ -38420,10 +38436,10 @@
         <v>12.359999999999616</v>
       </c>
       <c r="Z474" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="475" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="475" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>1866</v>
       </c>
@@ -38502,10 +38518,10 @@
         <v>17.300000000000182</v>
       </c>
       <c r="Z475" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="476" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="476" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>1866</v>
       </c>
@@ -38584,10 +38600,10 @@
         <v>11.780000000000255</v>
       </c>
       <c r="Z476" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="477" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="477" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>1866</v>
       </c>
@@ -38666,10 +38682,10 @@
         <v>15.919999999999845</v>
       </c>
       <c r="Z477" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="478" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="478" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>1866</v>
       </c>
@@ -38748,10 +38764,10 @@
         <v>10.960000000000036</v>
       </c>
       <c r="Z478" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="479" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="479" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>1866</v>
       </c>
@@ -38830,10 +38846,10 @@
         <v>6.9600000000036744</v>
       </c>
       <c r="Z479" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="480" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="480" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>1866</v>
       </c>
@@ -38912,10 +38928,10 @@
         <v>11.700000000001864</v>
       </c>
       <c r="Z480" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="481" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="481" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>1866</v>
       </c>
@@ -38994,10 +39010,10 @@
         <v>26.959999999999699</v>
       </c>
       <c r="Z481" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="482" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="482" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>1866</v>
       </c>
@@ -39076,10 +39092,10 @@
         <v>16.359999999997399</v>
       </c>
       <c r="Z482" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="483" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="483" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>1866</v>
       </c>
@@ -39158,10 +39174,10 @@
         <v>12.139999999999418</v>
       </c>
       <c r="Z483" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="484" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="484" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>1866</v>
       </c>
@@ -39240,10 +39256,10 @@
         <v>53.799999999999677</v>
       </c>
       <c r="Z484" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="485" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="485" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>1866</v>
       </c>
@@ -39322,10 +39338,10 @@
         <v>42.400000000000659</v>
       </c>
       <c r="Z485" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="486" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="486" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>1866</v>
       </c>
@@ -39404,10 +39420,10 @@
         <v>17.439999999999145</v>
       </c>
       <c r="Z486" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="487" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="487" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>1866</v>
       </c>
@@ -39486,7 +39502,7 @@
         <v>13.440000000002783</v>
       </c>
       <c r="Z487" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
